--- a/SIHadmissionDataset/database/institute/institute.xlsx
+++ b/SIHadmissionDataset/database/institute/institute.xlsx
@@ -1266,14 +1266,14 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.77734375" customWidth="1"/>
     <col min="2" max="2" width="35.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="39.5546875" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.21875" customWidth="1"/>
